--- a/resultados/pretratamiento-tablas-control/pretrat-francia-elo-facil-regular.xlsx
+++ b/resultados/pretratamiento-tablas-control/pretrat-francia-elo-facil-regular.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="1008">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="1009">
   <si>
     <t>Pretrat</t>
   </si>
@@ -121,7 +121,7 @@
     <t>48.878 (82)</t>
   </si>
   <si>
-    <t>11.037 (82)</t>
+    <t>11.024 (82)</t>
   </si>
   <si>
     <t>10.878 (82)</t>
@@ -277,7 +277,7 @@
     <t>49.254 (63)</t>
   </si>
   <si>
-    <t>10.905 (63)</t>
+    <t>10.889 (63)</t>
   </si>
   <si>
     <t>10.714 (63)</t>
@@ -433,7 +433,7 @@
     <t>50.333 (51)</t>
   </si>
   <si>
-    <t>10.765 (51)</t>
+    <t>10.745 (51)</t>
   </si>
   <si>
     <t>10.431 (51)</t>
@@ -646,7 +646,7 @@
     <t>49.4 (40)</t>
   </si>
   <si>
-    <t>10.725 (40)</t>
+    <t>10.7 (40)</t>
   </si>
   <si>
     <t>10.525 (40)</t>
@@ -844,7 +844,7 @@
     <t>48.443 (61)</t>
   </si>
   <si>
-    <t>11.639 (61)</t>
+    <t>11.623 (61)</t>
   </si>
   <si>
     <t>10.869 (61)</t>
@@ -994,12 +994,15 @@
     <t>49.675 (40)</t>
   </si>
   <si>
+    <t>11.225 (40)</t>
+  </si>
+  <si>
+    <t>11.05 (40)</t>
+  </si>
+  <si>
     <t>11.25 (40)</t>
   </si>
   <si>
-    <t>11.05 (40)</t>
-  </si>
-  <si>
     <t>12.275 (40)</t>
   </si>
   <si>
@@ -1198,7 +1201,7 @@
     <t>48.742 (62)</t>
   </si>
   <si>
-    <t>11.371 (62)</t>
+    <t>11.355 (62)</t>
   </si>
   <si>
     <t>10.371 (62)</t>
@@ -1345,7 +1348,7 @@
     <t>49.692 (65)</t>
   </si>
   <si>
-    <t>11.292 (65)</t>
+    <t>11.277 (65)</t>
   </si>
   <si>
     <t>10.338 (65)</t>
@@ -1498,7 +1501,7 @@
     <t>48.762 (42)</t>
   </si>
   <si>
-    <t>11.524 (42)</t>
+    <t>11.5 (42)</t>
   </si>
   <si>
     <t>11.357 (42)</t>
@@ -1705,6 +1708,9 @@
     <t>47.778 (27)</t>
   </si>
   <si>
+    <t>11.037 (27)</t>
+  </si>
+  <si>
     <t>11.778 (27)</t>
   </si>
   <si>
@@ -1912,7 +1918,7 @@
     <t>48.537 (54)</t>
   </si>
   <si>
-    <t>11.204 (54)</t>
+    <t>11.185 (54)</t>
   </si>
   <si>
     <t>10.963 (54)</t>
@@ -2110,7 +2116,7 @@
     <t>50.949 (39)</t>
   </si>
   <si>
-    <t>10.769 (39)</t>
+    <t>10.744 (39)</t>
   </si>
   <si>
     <t>11.0 (39)</t>
@@ -2314,7 +2320,7 @@
     <t>48.551 (49)</t>
   </si>
   <si>
-    <t>12.163 (49)</t>
+    <t>12.143 (49)</t>
   </si>
   <si>
     <t>10.408 (49)</t>
@@ -2326,9 +2332,6 @@
     <t>12.286 (49)</t>
   </si>
   <si>
-    <t>12.143 (49)</t>
-  </si>
-  <si>
     <t>12.224 (49)</t>
   </si>
   <si>
@@ -2464,7 +2467,7 @@
     <t>49.071 (42)</t>
   </si>
   <si>
-    <t>12.405 (42)</t>
+    <t>12.381 (42)</t>
   </si>
   <si>
     <t>10.571 (42)</t>
@@ -2716,7 +2719,7 @@
     <t>48.286 (35)</t>
   </si>
   <si>
-    <t>11.743 (35)</t>
+    <t>11.714 (35)</t>
   </si>
   <si>
     <t>10.486 (35)</t>
@@ -2923,7 +2926,7 @@
     <t>47.0 (31)</t>
   </si>
   <si>
-    <t>11.774 (31)</t>
+    <t>11.742 (31)</t>
   </si>
   <si>
     <t>10.806 (31)</t>
@@ -3479,10 +3482,10 @@
         <v>-6.548</v>
       </c>
       <c r="H2">
-        <v>-1.413</v>
+        <v>-1.189</v>
       </c>
       <c r="I2">
-        <v>0.161</v>
+        <v>0.234</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3508,10 +3511,10 @@
         <v>2.465</v>
       </c>
       <c r="H3">
-        <v>0.612</v>
+        <v>0.522</v>
       </c>
       <c r="I3">
-        <v>0.542</v>
+        <v>0.602</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3537,10 +3540,10 @@
         <v>-3.661</v>
       </c>
       <c r="H4">
-        <v>-0.614</v>
+        <v>-0.625</v>
       </c>
       <c r="I4">
-        <v>0.54</v>
+        <v>0.532</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3566,10 +3569,10 @@
         <v>4.283</v>
       </c>
       <c r="H5">
-        <v>0.9</v>
+        <v>0.741</v>
       </c>
       <c r="I5">
-        <v>0.37</v>
+        <v>0.459</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3595,10 +3598,10 @@
         <v>1.215</v>
       </c>
       <c r="H6">
-        <v>0.285</v>
+        <v>0.352</v>
       </c>
       <c r="I6">
-        <v>0.776</v>
+        <v>0.725</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3624,10 +3627,10 @@
         <v>-1.213</v>
       </c>
       <c r="H7">
-        <v>-0.275</v>
+        <v>-0.337</v>
       </c>
       <c r="I7">
-        <v>0.784</v>
+        <v>0.736</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3650,13 +3653,13 @@
         <v>0.042</v>
       </c>
       <c r="G8">
-        <v>1.553</v>
+        <v>1.595</v>
       </c>
       <c r="H8">
-        <v>0.713</v>
+        <v>0.578</v>
       </c>
       <c r="I8">
-        <v>0.477</v>
+        <v>0.5629999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3682,10 +3685,10 @@
         <v>-0.795</v>
       </c>
       <c r="H9">
-        <v>-0.389</v>
+        <v>-0.471</v>
       </c>
       <c r="I9">
-        <v>0.698</v>
+        <v>0.638</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3711,10 +3714,10 @@
         <v>0.206</v>
       </c>
       <c r="H10">
-        <v>0.08699999999999999</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="I10">
-        <v>0.931</v>
+        <v>0.9330000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3740,10 +3743,10 @@
         <v>-1.837</v>
       </c>
       <c r="H11">
-        <v>-0.823</v>
+        <v>-0.694</v>
       </c>
       <c r="I11">
-        <v>0.412</v>
+        <v>0.487</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3769,10 +3772,10 @@
         <v>0.137</v>
       </c>
       <c r="H12">
-        <v>0.065</v>
+        <v>0.075</v>
       </c>
       <c r="I12">
-        <v>0.949</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3798,10 +3801,10 @@
         <v>-0.341</v>
       </c>
       <c r="H13">
-        <v>-0.164</v>
+        <v>-0.208</v>
       </c>
       <c r="I13">
-        <v>0.87</v>
+        <v>0.835</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -3827,10 +3830,10 @@
         <v>0.036</v>
       </c>
       <c r="H14">
-        <v>1.035</v>
+        <v>0.97</v>
       </c>
       <c r="I14">
-        <v>0.303</v>
+        <v>0.332</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -3856,10 +3859,10 @@
         <v>0.03</v>
       </c>
       <c r="H15">
-        <v>0.803</v>
+        <v>0.821</v>
       </c>
       <c r="I15">
-        <v>0.424</v>
+        <v>0.412</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -3885,10 +3888,10 @@
         <v>-0.029</v>
       </c>
       <c r="H16">
-        <v>-0.735</v>
+        <v>-0.673</v>
       </c>
       <c r="I16">
-        <v>0.464</v>
+        <v>0.501</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -3914,10 +3917,10 @@
         <v>-0.026</v>
       </c>
       <c r="H17">
-        <v>-0.669</v>
+        <v>-0.621</v>
       </c>
       <c r="I17">
-        <v>0.505</v>
+        <v>0.535</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -3943,10 +3946,10 @@
         <v>0.004</v>
       </c>
       <c r="H18">
-        <v>0.108</v>
+        <v>0.064</v>
       </c>
       <c r="I18">
-        <v>0.915</v>
+        <v>0.949</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -3972,10 +3975,10 @@
         <v>-0.008</v>
       </c>
       <c r="H19">
-        <v>-0.247</v>
+        <v>-0.179</v>
       </c>
       <c r="I19">
-        <v>0.805</v>
+        <v>0.858</v>
       </c>
     </row>
   </sheetData>
@@ -4040,13 +4043,13 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C2" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="D2" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="E2" t="s">
         <v>184</v>
@@ -4061,10 +4064,10 @@
         <v>-4.546</v>
       </c>
       <c r="I2">
-        <v>-0.78</v>
+        <v>-0.669</v>
       </c>
       <c r="J2">
-        <v>0.438</v>
+        <v>0.504</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -4072,16 +4075,16 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C3" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="D3" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="E3" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="F3">
         <v>100</v>
@@ -4093,10 +4096,10 @@
         <v>4.636</v>
       </c>
       <c r="I3">
-        <v>1.067</v>
+        <v>1.195</v>
       </c>
       <c r="J3">
-        <v>0.29</v>
+        <v>0.232</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4104,16 +4107,16 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C4" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="D4" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="E4" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="F4">
         <v>100</v>
@@ -4125,10 +4128,10 @@
         <v>-2.86</v>
       </c>
       <c r="I4">
-        <v>-0.402</v>
+        <v>-0.288</v>
       </c>
       <c r="J4">
-        <v>0.6889999999999999</v>
+        <v>0.773</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -4136,16 +4139,16 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C5" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="D5" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="E5" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="F5">
         <v>100</v>
@@ -4157,10 +4160,10 @@
         <v>9.381</v>
       </c>
       <c r="I5">
-        <v>1.48</v>
+        <v>1.357</v>
       </c>
       <c r="J5">
-        <v>0.144</v>
+        <v>0.175</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -4168,16 +4171,16 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C6" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="D6" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="E6" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="F6">
         <v>100</v>
@@ -4189,10 +4192,10 @@
         <v>-2.797</v>
       </c>
       <c r="I6">
-        <v>-0.486</v>
+        <v>-0.497</v>
       </c>
       <c r="J6">
-        <v>0.629</v>
+        <v>0.619</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -4200,16 +4203,16 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C7" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="D7" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="E7" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="F7">
         <v>100</v>
@@ -4221,10 +4224,10 @@
         <v>-1.228</v>
       </c>
       <c r="I7">
-        <v>-0.202</v>
+        <v>-0.192</v>
       </c>
       <c r="J7">
-        <v>0.84</v>
+        <v>0.847</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -4232,13 +4235,13 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>239</v>
+        <v>559</v>
       </c>
       <c r="C8" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="D8" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="E8" t="s">
         <v>190</v>
@@ -4250,13 +4253,13 @@
         <v>0.035</v>
       </c>
       <c r="H8">
-        <v>-0.294</v>
+        <v>-0.214</v>
       </c>
       <c r="I8">
-        <v>-0.103</v>
+        <v>-0.064</v>
       </c>
       <c r="J8">
-        <v>0.918</v>
+        <v>0.949</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -4264,13 +4267,13 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="C9" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="D9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="E9" t="s">
         <v>190</v>
@@ -4285,10 +4288,10 @@
         <v>-2.999</v>
       </c>
       <c r="I9">
-        <v>-1.248</v>
+        <v>-1.488</v>
       </c>
       <c r="J9">
-        <v>0.216</v>
+        <v>0.137</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -4296,16 +4299,16 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="C10" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="D10" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="E10" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="F10">
         <v>100</v>
@@ -4317,10 +4320,10 @@
         <v>1.054</v>
       </c>
       <c r="I10">
-        <v>0.351</v>
+        <v>0.255</v>
       </c>
       <c r="J10">
-        <v>0.727</v>
+        <v>0.799</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -4328,16 +4331,16 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="C11" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="D11" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="E11" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="F11">
         <v>100</v>
@@ -4349,10 +4352,10 @@
         <v>-5.15</v>
       </c>
       <c r="I11">
-        <v>-1.743</v>
+        <v>-1.556</v>
       </c>
       <c r="J11">
-        <v>0.08599999999999999</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -4360,16 +4363,16 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="C12" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="D12" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E12" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="F12">
         <v>100</v>
@@ -4381,10 +4384,10 @@
         <v>1.179</v>
       </c>
       <c r="I12">
-        <v>0.404</v>
+        <v>0.319</v>
       </c>
       <c r="J12">
-        <v>0.6879999999999999</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -4392,16 +4395,16 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="C13" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="D13" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="E13" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="F13">
         <v>100</v>
@@ -4413,10 +4416,10 @@
         <v>-1.424</v>
       </c>
       <c r="I13">
-        <v>-0.503</v>
+        <v>-0.466</v>
       </c>
       <c r="J13">
-        <v>0.617</v>
+        <v>0.641</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -4424,16 +4427,16 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="C14" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="D14" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E14" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="F14">
         <v>100</v>
@@ -4445,10 +4448,10 @@
         <v>0.065</v>
       </c>
       <c r="I14">
-        <v>1.402</v>
+        <v>1.055</v>
       </c>
       <c r="J14">
-        <v>0.166</v>
+        <v>0.291</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -4456,16 +4459,16 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="C15" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="D15" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="E15" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="F15">
         <v>100</v>
@@ -4477,10 +4480,10 @@
         <v>0.08799999999999999</v>
       </c>
       <c r="I15">
-        <v>1.931</v>
+        <v>2.439</v>
       </c>
       <c r="J15">
-        <v>0.058</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -4488,16 +4491,16 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="C16" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="D16" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E16" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="F16">
         <v>100</v>
@@ -4509,10 +4512,10 @@
         <v>0.012</v>
       </c>
       <c r="I16">
-        <v>0.233</v>
+        <v>0.228</v>
       </c>
       <c r="J16">
-        <v>0.8159999999999999</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -4520,16 +4523,16 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="C17" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="D17" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="E17" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="F17">
         <v>100</v>
@@ -4541,10 +4544,10 @@
         <v>0.015</v>
       </c>
       <c r="I17">
-        <v>0.311</v>
+        <v>0.266</v>
       </c>
       <c r="J17">
-        <v>0.756</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -4552,16 +4555,16 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="C18" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D18" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="E18" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="F18">
         <v>100</v>
@@ -4573,10 +4576,10 @@
         <v>-0.025</v>
       </c>
       <c r="I18">
-        <v>-0.5590000000000001</v>
+        <v>-0.663</v>
       </c>
       <c r="J18">
-        <v>0.578</v>
+        <v>0.507</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -4584,16 +4587,16 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="C19" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="D19" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="E19" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F19">
         <v>100</v>
@@ -4605,10 +4608,10 @@
         <v>-0.03</v>
       </c>
       <c r="I19">
-        <v>-0.669</v>
+        <v>-0.751</v>
       </c>
       <c r="J19">
-        <v>0.506</v>
+        <v>0.453</v>
       </c>
     </row>
   </sheetData>
@@ -4673,16 +4676,16 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="C2" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="D2" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="E2" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="F2">
         <v>100</v>
@@ -4694,10 +4697,10 @@
         <v>-1.356</v>
       </c>
       <c r="I2">
-        <v>-0.181</v>
+        <v>-0.202</v>
       </c>
       <c r="J2">
-        <v>0.857</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -4705,16 +4708,16 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="C3" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="D3" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="E3" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="F3">
         <v>100</v>
@@ -4726,10 +4729,10 @@
         <v>0.982</v>
       </c>
       <c r="I3">
-        <v>0.176</v>
+        <v>0.206</v>
       </c>
       <c r="J3">
-        <v>0.861</v>
+        <v>0.837</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4737,16 +4740,16 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="C4" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="D4" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="E4" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="F4">
         <v>100</v>
@@ -4758,10 +4761,10 @@
         <v>6.651</v>
       </c>
       <c r="I4">
-        <v>0.735</v>
+        <v>0.715</v>
       </c>
       <c r="J4">
-        <v>0.465</v>
+        <v>0.474</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -4769,16 +4772,16 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="C5" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="D5" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="E5" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="F5">
         <v>100</v>
@@ -4790,10 +4793,10 @@
         <v>8.025</v>
       </c>
       <c r="I5">
-        <v>0.982</v>
+        <v>1.213</v>
       </c>
       <c r="J5">
-        <v>0.33</v>
+        <v>0.225</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -4801,16 +4804,16 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="C6" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="D6" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="E6" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="F6">
         <v>100</v>
@@ -4822,10 +4825,10 @@
         <v>-3.518</v>
       </c>
       <c r="I6">
-        <v>-0.478</v>
+        <v>-0.469</v>
       </c>
       <c r="J6">
-        <v>0.634</v>
+        <v>0.639</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -4833,16 +4836,16 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="C7" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="D7" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="E7" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="F7">
         <v>100</v>
@@ -4854,10 +4857,10 @@
         <v>-9.081</v>
       </c>
       <c r="I7">
-        <v>-1.184</v>
+        <v>-0.9340000000000001</v>
       </c>
       <c r="J7">
-        <v>0.241</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -4865,16 +4868,16 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="C8" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="D8" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="E8" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="F8">
         <v>100</v>
@@ -4883,13 +4886,13 @@
         <v>0.023</v>
       </c>
       <c r="H8">
-        <v>-1.212</v>
+        <v>-1.206</v>
       </c>
       <c r="I8">
-        <v>-0.332</v>
+        <v>-0.375</v>
       </c>
       <c r="J8">
-        <v>0.741</v>
+        <v>0.707</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -4897,16 +4900,16 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="C9" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="D9" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="E9" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="F9">
         <v>100</v>
@@ -4918,10 +4921,10 @@
         <v>-1.395</v>
       </c>
       <c r="I9">
-        <v>-0.45</v>
+        <v>-0.492</v>
       </c>
       <c r="J9">
-        <v>0.654</v>
+        <v>0.623</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -4929,16 +4932,16 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="C10" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="D10" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="E10" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="F10">
         <v>100</v>
@@ -4950,10 +4953,10 @@
         <v>-3.21</v>
       </c>
       <c r="I10">
-        <v>-0.841</v>
+        <v>-0.856</v>
       </c>
       <c r="J10">
-        <v>0.404</v>
+        <v>0.392</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -4961,16 +4964,16 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="C11" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="D11" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="E11" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="F11">
         <v>100</v>
@@ -4982,10 +4985,10 @@
         <v>-3.895</v>
       </c>
       <c r="I11">
-        <v>-1.017</v>
+        <v>-1.162</v>
       </c>
       <c r="J11">
-        <v>0.313</v>
+        <v>0.245</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -4993,16 +4996,16 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="C12" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="D12" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="E12" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="F12">
         <v>100</v>
@@ -5014,10 +5017,10 @@
         <v>1.262</v>
       </c>
       <c r="I12">
-        <v>0.339</v>
+        <v>0.26</v>
       </c>
       <c r="J12">
-        <v>0.736</v>
+        <v>0.795</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -5025,16 +5028,16 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="C13" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="D13" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="E13" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="F13">
         <v>100</v>
@@ -5046,10 +5049,10 @@
         <v>2.342</v>
       </c>
       <c r="I13">
-        <v>0.649</v>
+        <v>0.521</v>
       </c>
       <c r="J13">
-        <v>0.519</v>
+        <v>0.603</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -5057,16 +5060,16 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="C14" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="D14" t="s">
         <v>246</v>
       </c>
       <c r="E14" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="F14">
         <v>100</v>
@@ -5078,10 +5081,10 @@
         <v>0.1</v>
       </c>
       <c r="I14">
-        <v>1.717</v>
+        <v>1.419</v>
       </c>
       <c r="J14">
-        <v>0.091</v>
+        <v>0.156</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -5089,16 +5092,16 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="C15" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="D15" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="E15" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="F15">
         <v>100</v>
@@ -5110,10 +5113,10 @@
         <v>0.118</v>
       </c>
       <c r="I15">
-        <v>2.035</v>
+        <v>2.302</v>
       </c>
       <c r="J15">
-        <v>0.046</v>
+        <v>0.021</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -5121,16 +5124,16 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C16" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="D16" t="s">
         <v>248</v>
       </c>
       <c r="E16" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="F16">
         <v>100</v>
@@ -5142,10 +5145,10 @@
         <v>0.056</v>
       </c>
       <c r="I16">
-        <v>0.844</v>
+        <v>0.966</v>
       </c>
       <c r="J16">
-        <v>0.402</v>
+        <v>0.334</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -5153,16 +5156,16 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="C17" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="D17" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="E17" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="F17">
         <v>100</v>
@@ -5174,10 +5177,10 @@
         <v>0.031</v>
       </c>
       <c r="I17">
-        <v>0.516</v>
+        <v>0.424</v>
       </c>
       <c r="J17">
-        <v>0.608</v>
+        <v>0.672</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -5185,16 +5188,16 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="C18" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="D18" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="E18" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="F18">
         <v>100</v>
@@ -5206,10 +5209,10 @@
         <v>-0.055</v>
       </c>
       <c r="I18">
-        <v>-0.966</v>
+        <v>-0.944</v>
       </c>
       <c r="J18">
-        <v>0.338</v>
+        <v>0.345</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -5217,16 +5220,16 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="C19" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="D19" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="E19" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="F19">
         <v>100</v>
@@ -5238,10 +5241,10 @@
         <v>-0.013</v>
       </c>
       <c r="I19">
-        <v>-0.232</v>
+        <v>-0.228</v>
       </c>
       <c r="J19">
-        <v>0.8169999999999999</v>
+        <v>0.82</v>
       </c>
     </row>
   </sheetData>
@@ -5306,16 +5309,16 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="C2" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="D2" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="E2" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="F2">
         <v>100</v>
@@ -5327,10 +5330,10 @@
         <v>-1.636</v>
       </c>
       <c r="I2">
-        <v>-0.204</v>
+        <v>-0.186</v>
       </c>
       <c r="J2">
-        <v>0.839</v>
+        <v>0.852</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -5338,16 +5341,16 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="C3" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="D3" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="E3" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="F3">
         <v>100</v>
@@ -5359,10 +5362,10 @@
         <v>-1.279</v>
       </c>
       <c r="I3">
-        <v>-0.213</v>
+        <v>-0.265</v>
       </c>
       <c r="J3">
-        <v>0.832</v>
+        <v>0.791</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -5370,16 +5373,16 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="C4" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="D4" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="E4" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="F4">
         <v>100</v>
@@ -5391,10 +5394,10 @@
         <v>11.511</v>
       </c>
       <c r="I4">
-        <v>1.195</v>
+        <v>1.589</v>
       </c>
       <c r="J4">
-        <v>0.236</v>
+        <v>0.112</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -5402,16 +5405,16 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="C5" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="D5" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="E5" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="F5">
         <v>100</v>
@@ -5423,10 +5426,10 @@
         <v>2.332</v>
       </c>
       <c r="I5">
-        <v>0.264</v>
+        <v>0.267</v>
       </c>
       <c r="J5">
-        <v>0.792</v>
+        <v>0.789</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -5434,16 +5437,16 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="C6" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="D6" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="E6" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="F6">
         <v>100</v>
@@ -5455,10 +5458,10 @@
         <v>-6.908</v>
       </c>
       <c r="I6">
-        <v>-0.88</v>
+        <v>-0.642</v>
       </c>
       <c r="J6">
-        <v>0.382</v>
+        <v>0.521</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -5466,16 +5469,16 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="C7" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="D7" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="E7" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="F7">
         <v>100</v>
@@ -5487,10 +5490,10 @@
         <v>-7.151</v>
       </c>
       <c r="I7">
-        <v>-0.865</v>
+        <v>-0.667</v>
       </c>
       <c r="J7">
-        <v>0.39</v>
+        <v>0.505</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -5498,16 +5501,16 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="C8" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="D8" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="E8" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="F8">
         <v>100</v>
@@ -5516,13 +5519,13 @@
         <v>0.019</v>
       </c>
       <c r="H8">
-        <v>0.588</v>
+        <v>0.633</v>
       </c>
       <c r="I8">
-        <v>0.15</v>
+        <v>0.176</v>
       </c>
       <c r="J8">
-        <v>0.881</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -5530,16 +5533,16 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="C9" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="D9" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="E9" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="F9">
         <v>100</v>
@@ -5551,10 +5554,10 @@
         <v>0.498</v>
       </c>
       <c r="I9">
-        <v>0.15</v>
+        <v>0.152</v>
       </c>
       <c r="J9">
-        <v>0.881</v>
+        <v>0.879</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -5562,16 +5565,16 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="C10" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="D10" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="E10" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="F10">
         <v>100</v>
@@ -5583,10 +5586,10 @@
         <v>-5.276</v>
       </c>
       <c r="I10">
-        <v>-1.298</v>
+        <v>-1.473</v>
       </c>
       <c r="J10">
-        <v>0.199</v>
+        <v>0.141</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -5594,16 +5597,16 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="C11" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="D11" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="E11" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="F11">
         <v>100</v>
@@ -5615,10 +5618,10 @@
         <v>-2.896</v>
       </c>
       <c r="I11">
-        <v>-0.703</v>
+        <v>-0.882</v>
       </c>
       <c r="J11">
-        <v>0.485</v>
+        <v>0.378</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -5626,16 +5629,16 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="C12" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="D12" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="E12" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="F12">
         <v>100</v>
@@ -5647,10 +5650,10 @@
         <v>2.122</v>
       </c>
       <c r="I12">
-        <v>0.532</v>
+        <v>0.357</v>
       </c>
       <c r="J12">
-        <v>0.596</v>
+        <v>0.721</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -5658,16 +5661,16 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C13" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="D13" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="E13" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="F13">
         <v>100</v>
@@ -5679,10 +5682,10 @@
         <v>0.656</v>
       </c>
       <c r="I13">
-        <v>0.169</v>
+        <v>0.145</v>
       </c>
       <c r="J13">
-        <v>0.866</v>
+        <v>0.884</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -5690,16 +5693,16 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="C14" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="D14" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="E14" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="F14">
         <v>100</v>
@@ -5711,10 +5714,10 @@
         <v>0.08500000000000001</v>
       </c>
       <c r="I14">
-        <v>1.349</v>
+        <v>1.115</v>
       </c>
       <c r="J14">
-        <v>0.182</v>
+        <v>0.265</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -5722,16 +5725,16 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="C15" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="D15" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="E15" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="F15">
         <v>100</v>
@@ -5743,10 +5746,10 @@
         <v>0.098</v>
       </c>
       <c r="I15">
-        <v>1.567</v>
+        <v>1.474</v>
       </c>
       <c r="J15">
-        <v>0.122</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -5754,16 +5757,16 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="C16" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="D16" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="E16" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="F16">
         <v>100</v>
@@ -5775,10 +5778,10 @@
         <v>0.036</v>
       </c>
       <c r="I16">
-        <v>0.496</v>
+        <v>0.54</v>
       </c>
       <c r="J16">
-        <v>0.622</v>
+        <v>0.589</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -5786,16 +5789,16 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="C17" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="D17" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="E17" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="F17">
         <v>100</v>
@@ -5807,10 +5810,10 @@
         <v>0.051</v>
       </c>
       <c r="I17">
-        <v>0.782</v>
+        <v>0.579</v>
       </c>
       <c r="J17">
-        <v>0.437</v>
+        <v>0.5620000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -5818,16 +5821,16 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="C18" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="D18" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="E18" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="F18">
         <v>100</v>
@@ -5839,10 +5842,10 @@
         <v>-0.025</v>
       </c>
       <c r="I18">
-        <v>-0.408</v>
+        <v>-0.378</v>
       </c>
       <c r="J18">
-        <v>0.6850000000000001</v>
+        <v>0.706</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -5850,16 +5853,16 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="C19" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="D19" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="E19" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="F19">
         <v>100</v>
@@ -5871,10 +5874,10 @@
         <v>0.029</v>
       </c>
       <c r="I19">
-        <v>0.476</v>
+        <v>0.457</v>
       </c>
       <c r="J19">
-        <v>0.636</v>
+        <v>0.648</v>
       </c>
     </row>
   </sheetData>
@@ -5939,13 +5942,13 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="C2" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="D2" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="E2" t="s">
         <v>184</v>
@@ -5960,10 +5963,10 @@
         <v>-0.655</v>
       </c>
       <c r="I2">
-        <v>-0.123</v>
+        <v>-0.098</v>
       </c>
       <c r="J2">
-        <v>0.903</v>
+        <v>0.922</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -5971,16 +5974,16 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="C3" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="D3" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="E3" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="F3">
         <v>80</v>
@@ -5992,10 +5995,10 @@
         <v>2.232</v>
       </c>
       <c r="I3">
-        <v>0.597</v>
+        <v>0.466</v>
       </c>
       <c r="J3">
-        <v>0.553</v>
+        <v>0.641</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -6003,16 +6006,16 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="C4" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="D4" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="E4" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="F4">
         <v>80</v>
@@ -6024,7 +6027,7 @@
         <v>-0.032</v>
       </c>
       <c r="I4">
-        <v>-0.006</v>
+        <v>-0.005</v>
       </c>
       <c r="J4">
         <v>0.996</v>
@@ -6035,16 +6038,16 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="C5" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="D5" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="E5" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="F5">
         <v>80</v>
@@ -6056,10 +6059,10 @@
         <v>8.669</v>
       </c>
       <c r="I5">
-        <v>1.621</v>
+        <v>1.542</v>
       </c>
       <c r="J5">
-        <v>0.112</v>
+        <v>0.123</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -6067,16 +6070,16 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="C6" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="D6" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="E6" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="F6">
         <v>80</v>
@@ -6088,10 +6091,10 @@
         <v>-0.8149999999999999</v>
       </c>
       <c r="I6">
-        <v>-0.149</v>
+        <v>-0.118</v>
       </c>
       <c r="J6">
-        <v>0.882</v>
+        <v>0.906</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -6099,16 +6102,16 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="C7" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="D7" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="E7" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="F7">
         <v>80</v>
@@ -6120,10 +6123,10 @@
         <v>1.286</v>
       </c>
       <c r="I7">
-        <v>0.248</v>
+        <v>0.252</v>
       </c>
       <c r="J7">
-        <v>0.805</v>
+        <v>0.801</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -6134,10 +6137,10 @@
         <v>119</v>
       </c>
       <c r="C8" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="D8" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="E8" t="s">
         <v>190</v>
@@ -6152,10 +6155,10 @@
         <v>-2.069</v>
       </c>
       <c r="I8">
-        <v>-0.766</v>
+        <v>-0.707</v>
       </c>
       <c r="J8">
-        <v>0.448</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -6163,13 +6166,13 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="C9" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="D9" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="E9" t="s">
         <v>190</v>
@@ -6184,10 +6187,10 @@
         <v>-2.557</v>
       </c>
       <c r="I9">
-        <v>-1.177</v>
+        <v>-1.143</v>
       </c>
       <c r="J9">
-        <v>0.245</v>
+        <v>0.253</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -6195,16 +6198,16 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="C10" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="D10" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="E10" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="F10">
         <v>80</v>
@@ -6216,10 +6219,10 @@
         <v>-0.195</v>
       </c>
       <c r="I10">
-        <v>-0.081</v>
+        <v>-0.065</v>
       </c>
       <c r="J10">
-        <v>0.9360000000000001</v>
+        <v>0.949</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -6227,16 +6230,16 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="C11" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="D11" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="E11" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="F11">
         <v>80</v>
@@ -6248,10 +6251,10 @@
         <v>-4.029</v>
       </c>
       <c r="I11">
-        <v>-1.508</v>
+        <v>-1.592</v>
       </c>
       <c r="J11">
-        <v>0.138</v>
+        <v>0.111</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -6259,16 +6262,16 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="C12" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="D12" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="E12" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="F12">
         <v>80</v>
@@ -6280,10 +6283,10 @@
         <v>0.93</v>
       </c>
       <c r="I12">
-        <v>0.328</v>
+        <v>0.257</v>
       </c>
       <c r="J12">
-        <v>0.745</v>
+        <v>0.797</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -6291,16 +6294,16 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="C13" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="D13" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="E13" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="F13">
         <v>80</v>
@@ -6312,10 +6315,10 @@
         <v>-1.589</v>
       </c>
       <c r="I13">
-        <v>-0.635</v>
+        <v>-0.655</v>
       </c>
       <c r="J13">
-        <v>0.528</v>
+        <v>0.512</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -6323,16 +6326,16 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="C14" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="D14" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="E14" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="F14">
         <v>80</v>
@@ -6344,10 +6347,10 @@
         <v>0.078</v>
       </c>
       <c r="I14">
-        <v>1.887</v>
+        <v>1.795</v>
       </c>
       <c r="J14">
-        <v>0.065</v>
+        <v>0.073</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -6355,16 +6358,16 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="C15" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="D15" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="E15" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="F15">
         <v>80</v>
@@ -6376,10 +6379,10 @@
         <v>0.044</v>
       </c>
       <c r="I15">
-        <v>1.009</v>
+        <v>1.171</v>
       </c>
       <c r="J15">
-        <v>0.318</v>
+        <v>0.242</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -6387,16 +6390,16 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="C16" t="s">
         <v>297</v>
       </c>
       <c r="D16" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="E16" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="F16">
         <v>80</v>
@@ -6408,10 +6411,10 @@
         <v>0.028</v>
       </c>
       <c r="I16">
-        <v>0.63</v>
+        <v>0.832</v>
       </c>
       <c r="J16">
-        <v>0.532</v>
+        <v>0.405</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -6419,16 +6422,16 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="C17" t="s">
         <v>298</v>
       </c>
       <c r="D17" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="E17" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="F17">
         <v>80</v>
@@ -6440,10 +6443,10 @@
         <v>0.007</v>
       </c>
       <c r="I17">
-        <v>0.158</v>
+        <v>0.171</v>
       </c>
       <c r="J17">
-        <v>0.875</v>
+        <v>0.864</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -6451,16 +6454,16 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="C18" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="D18" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="E18" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="F18">
         <v>80</v>
@@ -6472,10 +6475,10 @@
         <v>-0.038</v>
       </c>
       <c r="I18">
-        <v>-0.971</v>
+        <v>-0.927</v>
       </c>
       <c r="J18">
-        <v>0.337</v>
+        <v>0.354</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -6483,16 +6486,16 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="C19" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="D19" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="E19" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F19">
         <v>80</v>
@@ -6504,10 +6507,10 @@
         <v>-0.045</v>
       </c>
       <c r="I19">
-        <v>-1.185</v>
+        <v>-1.104</v>
       </c>
       <c r="J19">
-        <v>0.242</v>
+        <v>0.269</v>
       </c>
     </row>
   </sheetData>
@@ -6572,16 +6575,16 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="C2" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D2" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="E2" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="F2">
         <v>80</v>
@@ -6593,10 +6596,10 @@
         <v>-4.331</v>
       </c>
       <c r="I2">
-        <v>-0.625</v>
+        <v>-0.435</v>
       </c>
       <c r="J2">
-        <v>0.535</v>
+        <v>0.664</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -6604,16 +6607,16 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="C3" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="D3" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="E3" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="F3">
         <v>80</v>
@@ -6625,10 +6628,10 @@
         <v>4.352</v>
       </c>
       <c r="I3">
-        <v>0.897</v>
+        <v>0.97</v>
       </c>
       <c r="J3">
-        <v>0.374</v>
+        <v>0.332</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -6636,16 +6639,16 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="C4" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="D4" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="E4" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="F4">
         <v>80</v>
@@ -6657,10 +6660,10 @@
         <v>0.636</v>
       </c>
       <c r="I4">
-        <v>0.08400000000000001</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="J4">
-        <v>0.9330000000000001</v>
+        <v>0.9429999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -6668,16 +6671,16 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="C5" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="D5" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="E5" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="F5">
         <v>80</v>
@@ -6689,10 +6692,10 @@
         <v>7.593</v>
       </c>
       <c r="I5">
-        <v>1.072</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="J5">
-        <v>0.289</v>
+        <v>0.417</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -6700,16 +6703,16 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C6" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="D6" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="E6" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="F6">
         <v>80</v>
@@ -6721,10 +6724,10 @@
         <v>-5.028</v>
       </c>
       <c r="I6">
-        <v>-0.709</v>
+        <v>-0.777</v>
       </c>
       <c r="J6">
-        <v>0.482</v>
+        <v>0.437</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -6732,16 +6735,16 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="C7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D7" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="E7" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="F7">
         <v>80</v>
@@ -6753,10 +6756,10 @@
         <v>2.46</v>
       </c>
       <c r="I7">
-        <v>0.364</v>
+        <v>0.293</v>
       </c>
       <c r="J7">
-        <v>0.718</v>
+        <v>0.769</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -6764,16 +6767,16 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C8" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="D8" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="E8" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="F8">
         <v>80</v>
@@ -6782,13 +6785,13 @@
         <v>0.032</v>
       </c>
       <c r="H8">
-        <v>-2.117</v>
+        <v>-2.108</v>
       </c>
       <c r="I8">
-        <v>-0.599</v>
+        <v>-0.464</v>
       </c>
       <c r="J8">
-        <v>0.552</v>
+        <v>0.642</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -6796,16 +6799,16 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C9" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="D9" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="E9" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="F9">
         <v>80</v>
@@ -6817,10 +6820,10 @@
         <v>-4.401</v>
       </c>
       <c r="I9">
-        <v>-1.571</v>
+        <v>-2.135</v>
       </c>
       <c r="J9">
-        <v>0.123</v>
+        <v>0.033</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -6828,16 +6831,16 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="C10" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="D10" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="E10" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="F10">
         <v>80</v>
@@ -6849,10 +6852,10 @@
         <v>-0.636</v>
       </c>
       <c r="I10">
-        <v>-0.202</v>
+        <v>-0.208</v>
       </c>
       <c r="J10">
-        <v>0.841</v>
+        <v>0.835</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -6860,16 +6863,16 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="C11" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="D11" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="E11" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="F11">
         <v>80</v>
@@ -6881,10 +6884,10 @@
         <v>-4.153</v>
       </c>
       <c r="I11">
-        <v>-1.181</v>
+        <v>-0.892</v>
       </c>
       <c r="J11">
-        <v>0.244</v>
+        <v>0.372</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -6892,16 +6895,16 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="C12" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="D12" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="E12" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="F12">
         <v>80</v>
@@ -6913,10 +6916,10 @@
         <v>3.127</v>
       </c>
       <c r="I12">
-        <v>0.851</v>
+        <v>0.836</v>
       </c>
       <c r="J12">
-        <v>0.399</v>
+        <v>0.403</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -6924,16 +6927,16 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="C13" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="D13" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="E13" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="F13">
         <v>80</v>
@@ -6945,10 +6948,10 @@
         <v>-3.207</v>
       </c>
       <c r="I13">
-        <v>-0.989</v>
+        <v>-0.866</v>
       </c>
       <c r="J13">
-        <v>0.328</v>
+        <v>0.387</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -6956,16 +6959,16 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="C14" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="D14" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="E14" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="F14">
         <v>80</v>
@@ -6977,10 +6980,10 @@
         <v>0.016</v>
       </c>
       <c r="I14">
-        <v>0.285</v>
+        <v>0.211</v>
       </c>
       <c r="J14">
-        <v>0.777</v>
+        <v>0.833</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -6988,16 +6991,16 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="C15" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="D15" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="E15" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="F15">
         <v>80</v>
@@ -7009,10 +7012,10 @@
         <v>0.042</v>
       </c>
       <c r="I15">
-        <v>0.724</v>
+        <v>1.006</v>
       </c>
       <c r="J15">
-        <v>0.473</v>
+        <v>0.314</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -7020,16 +7023,16 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="C16" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="D16" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="E16" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="F16">
         <v>80</v>
@@ -7041,10 +7044,10 @@
         <v>0.052</v>
       </c>
       <c r="I16">
-        <v>0.908</v>
+        <v>0.871</v>
       </c>
       <c r="J16">
-        <v>0.368</v>
+        <v>0.384</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -7052,16 +7055,16 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="C17" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="D17" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="E17" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="F17">
         <v>80</v>
@@ -7073,10 +7076,10 @@
         <v>0.029</v>
       </c>
       <c r="I17">
-        <v>0.499</v>
+        <v>0.381</v>
       </c>
       <c r="J17">
-        <v>0.62</v>
+        <v>0.703</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -7084,16 +7087,16 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="C18" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="D18" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="E18" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="F18">
         <v>80</v>
@@ -7105,10 +7108,10 @@
         <v>-0.033</v>
       </c>
       <c r="I18">
-        <v>-0.638</v>
+        <v>-0.655</v>
       </c>
       <c r="J18">
-        <v>0.527</v>
+        <v>0.512</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -7116,16 +7119,16 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="C19" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="D19" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="E19" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="F19">
         <v>80</v>
@@ -7137,10 +7140,10 @@
         <v>-0.04</v>
       </c>
       <c r="I19">
-        <v>-0.798</v>
+        <v>-0.891</v>
       </c>
       <c r="J19">
-        <v>0.429</v>
+        <v>0.373</v>
       </c>
     </row>
   </sheetData>
@@ -7205,16 +7208,16 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="C2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="D2" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="E2" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="F2">
         <v>80</v>
@@ -7237,16 +7240,16 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="C3" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="D3" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="E3" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="F3">
         <v>80</v>
@@ -7258,10 +7261,10 @@
         <v>0.992</v>
       </c>
       <c r="I3">
-        <v>0.162</v>
+        <v>0.208</v>
       </c>
       <c r="J3">
-        <v>0.872</v>
+        <v>0.835</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -7269,16 +7272,16 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="C4" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="D4" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="E4" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="F4">
         <v>80</v>
@@ -7290,10 +7293,10 @@
         <v>9.598000000000001</v>
       </c>
       <c r="I4">
-        <v>1.023</v>
+        <v>0.99</v>
       </c>
       <c r="J4">
-        <v>0.312</v>
+        <v>0.322</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -7301,16 +7304,16 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="C5" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="D5" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="E5" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="F5">
         <v>80</v>
@@ -7322,10 +7325,10 @@
         <v>-3.289</v>
       </c>
       <c r="I5">
-        <v>-0.367</v>
+        <v>-0.328</v>
       </c>
       <c r="J5">
-        <v>0.715</v>
+        <v>0.743</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -7333,16 +7336,16 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="C6" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="D6" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="E6" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="F6">
         <v>80</v>
@@ -7354,10 +7357,10 @@
         <v>-11.838</v>
       </c>
       <c r="I6">
-        <v>-1.352</v>
+        <v>-1.448</v>
       </c>
       <c r="J6">
-        <v>0.183</v>
+        <v>0.148</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -7365,16 +7368,16 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="C7" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="D7" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="E7" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="F7">
         <v>80</v>
@@ -7386,10 +7389,10 @@
         <v>-1.801</v>
       </c>
       <c r="I7">
-        <v>-0.212</v>
+        <v>-0.19</v>
       </c>
       <c r="J7">
-        <v>0.833</v>
+        <v>0.849</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -7397,16 +7400,16 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="C8" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="D8" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="E8" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="F8">
         <v>80</v>
@@ -7415,13 +7418,13 @@
         <v>0.023</v>
       </c>
       <c r="H8">
-        <v>-3.759</v>
+        <v>-3.868</v>
       </c>
       <c r="I8">
-        <v>-0.853</v>
+        <v>-0.819</v>
       </c>
       <c r="J8">
-        <v>0.398</v>
+        <v>0.413</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -7429,16 +7432,16 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="C9" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="D9" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="E9" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="F9">
         <v>80</v>
@@ -7450,10 +7453,10 @@
         <v>-3.842</v>
       </c>
       <c r="I9">
-        <v>-1.08</v>
+        <v>-1.397</v>
       </c>
       <c r="J9">
-        <v>0.286</v>
+        <v>0.162</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -7461,16 +7464,16 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C10" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="D10" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="E10" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="F10">
         <v>80</v>
@@ -7482,10 +7485,10 @@
         <v>-3.369</v>
       </c>
       <c r="I10">
-        <v>-0.86</v>
+        <v>-0.998</v>
       </c>
       <c r="J10">
-        <v>0.394</v>
+        <v>0.319</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -7493,16 +7496,16 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="C11" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="D11" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="E11" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="F11">
         <v>80</v>
@@ -7514,10 +7517,10 @@
         <v>1.352</v>
       </c>
       <c r="I11">
-        <v>0.303</v>
+        <v>0.297</v>
       </c>
       <c r="J11">
-        <v>0.764</v>
+        <v>0.767</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -7525,16 +7528,16 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C12" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="D12" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="E12" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="F12">
         <v>80</v>
@@ -7546,10 +7549,10 @@
         <v>5.345</v>
       </c>
       <c r="I12">
-        <v>1.169</v>
+        <v>1.22</v>
       </c>
       <c r="J12">
-        <v>0.248</v>
+        <v>0.222</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -7557,16 +7560,16 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="C13" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="D13" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="E13" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="F13">
         <v>80</v>
@@ -7581,7 +7584,7 @@
         <v>-0.059</v>
       </c>
       <c r="J13">
-        <v>0.954</v>
+        <v>0.953</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -7589,16 +7592,16 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="C14" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="D14" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="E14" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="F14">
         <v>80</v>
@@ -7610,10 +7613,10 @@
         <v>0.055</v>
       </c>
       <c r="I14">
-        <v>0.786</v>
+        <v>0.671</v>
       </c>
       <c r="J14">
-        <v>0.436</v>
+        <v>0.503</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -7621,16 +7624,16 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="C15" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="D15" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="E15" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="F15">
         <v>80</v>
@@ -7642,10 +7645,10 @@
         <v>0.045</v>
       </c>
       <c r="I15">
-        <v>0.619</v>
+        <v>0.987</v>
       </c>
       <c r="J15">
-        <v>0.539</v>
+        <v>0.324</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -7653,16 +7656,16 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="C16" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="D16" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="E16" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="F16">
         <v>80</v>
@@ -7674,10 +7677,10 @@
         <v>0.106</v>
       </c>
       <c r="I16">
-        <v>1.501</v>
+        <v>1.431</v>
       </c>
       <c r="J16">
-        <v>0.14</v>
+        <v>0.152</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -7685,16 +7688,16 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="C17" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="D17" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="E17" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="F17">
         <v>80</v>
@@ -7706,10 +7709,10 @@
         <v>0.046</v>
       </c>
       <c r="I17">
-        <v>0.635</v>
+        <v>0.49</v>
       </c>
       <c r="J17">
-        <v>0.529</v>
+        <v>0.624</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -7717,16 +7720,16 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="C18" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="D18" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="E18" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="F18">
         <v>80</v>
@@ -7738,10 +7741,10 @@
         <v>-0.061</v>
       </c>
       <c r="I18">
-        <v>-0.9350000000000001</v>
+        <v>-0.831</v>
       </c>
       <c r="J18">
-        <v>0.355</v>
+        <v>0.406</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -7749,16 +7752,16 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C19" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="D19" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="E19" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="F19">
         <v>80</v>
@@ -7770,10 +7773,10 @@
         <v>-0.005</v>
       </c>
       <c r="I19">
-        <v>-0.073</v>
+        <v>-0.063</v>
       </c>
       <c r="J19">
-        <v>0.9419999999999999</v>
+        <v>0.949</v>
       </c>
     </row>
   </sheetData>
@@ -7842,19 +7845,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="C2" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="D2" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="E2" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="F2" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="G2">
         <v>80</v>
@@ -7866,10 +7869,10 @@
         <v>3.09</v>
       </c>
       <c r="J2">
-        <v>0.358</v>
+        <v>0.505</v>
       </c>
       <c r="K2">
-        <v>0.722</v>
+        <v>0.613</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -7877,19 +7880,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="C3" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="D3" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="E3" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="F3" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="G3">
         <v>80</v>
@@ -7901,10 +7904,10 @@
         <v>-4.141</v>
       </c>
       <c r="J3">
-        <v>-0.6850000000000001</v>
+        <v>-0.724</v>
       </c>
       <c r="K3">
-        <v>0.497</v>
+        <v>0.469</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -7912,19 +7915,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="C4" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="D4" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="E4" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="F4" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="G4">
         <v>80</v>
@@ -7936,10 +7939,10 @@
         <v>18.057</v>
       </c>
       <c r="J4">
-        <v>2.001</v>
+        <v>1.993</v>
       </c>
       <c r="K4">
-        <v>0.051</v>
+        <v>0.046</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -7947,16 +7950,16 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="C5" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="D5" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="E5" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="F5" t="s">
         <v>184</v>
@@ -7971,10 +7974,10 @@
         <v>-2.753</v>
       </c>
       <c r="J5">
-        <v>-0.309</v>
+        <v>-0.269</v>
       </c>
       <c r="K5">
-        <v>0.758</v>
+        <v>0.788</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -7982,19 +7985,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="C6" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="D6" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="E6" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="F6" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="G6">
         <v>80</v>
@@ -8006,10 +8009,10 @@
         <v>-12.712</v>
       </c>
       <c r="J6">
-        <v>-1.469</v>
+        <v>-1.217</v>
       </c>
       <c r="K6">
-        <v>0.149</v>
+        <v>0.224</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -8017,19 +8020,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="C7" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="D7" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="E7" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="F7" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="G7">
         <v>80</v>
@@ -8041,10 +8044,10 @@
         <v>-2.344</v>
       </c>
       <c r="J7">
-        <v>-0.279</v>
+        <v>-0.253</v>
       </c>
       <c r="K7">
-        <v>0.782</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -8052,19 +8055,19 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="C8" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="D8" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="E8" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="F8" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="G8">
         <v>80</v>
@@ -8073,13 +8076,13 @@
         <v>0.022</v>
       </c>
       <c r="I8">
-        <v>-3.178</v>
+        <v>-3.239</v>
       </c>
       <c r="J8">
-        <v>-0.725</v>
+        <v>-0.867</v>
       </c>
       <c r="K8">
-        <v>0.472</v>
+        <v>0.386</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -8087,19 +8090,19 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="C9" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="D9" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="E9" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="F9" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="G9">
         <v>80</v>
@@ -8111,10 +8114,10 @@
         <v>-1.299</v>
       </c>
       <c r="J9">
-        <v>-0.364</v>
+        <v>-0.325</v>
       </c>
       <c r="K9">
-        <v>0.717</v>
+        <v>0.745</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -8122,19 +8125,19 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="C10" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="D10" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="E10" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="F10" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="G10">
         <v>80</v>
@@ -8146,10 +8149,10 @@
         <v>-6.731</v>
       </c>
       <c r="J10">
-        <v>-1.776</v>
+        <v>-1.925</v>
       </c>
       <c r="K10">
-        <v>0.082</v>
+        <v>0.054</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -8157,19 +8160,19 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="C11" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="D11" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="E11" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="F11" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="G11">
         <v>80</v>
@@ -8181,10 +8184,10 @@
         <v>0.25</v>
       </c>
       <c r="J11">
-        <v>0.056</v>
+        <v>0.058</v>
       </c>
       <c r="K11">
-        <v>0.955</v>
+        <v>0.954</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -8192,19 +8195,19 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="C12" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="D12" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="E12" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="F12" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="G12">
         <v>80</v>
@@ -8216,10 +8219,10 @@
         <v>5.527</v>
       </c>
       <c r="J12">
-        <v>1.221</v>
+        <v>1.052</v>
       </c>
       <c r="K12">
-        <v>0.228</v>
+        <v>0.293</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -8227,19 +8230,19 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="C13" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="D13" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="E13" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="F13" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="G13">
         <v>80</v>
@@ -8251,10 +8254,10 @@
         <v>0.479</v>
       </c>
       <c r="J13">
-        <v>0.118</v>
+        <v>0.161</v>
       </c>
       <c r="K13">
-        <v>0.907</v>
+        <v>0.872</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -8262,19 +8265,19 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="C14" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="D14" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="E14" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="F14" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="G14">
         <v>80</v>
@@ -8286,10 +8289,10 @@
         <v>0.076</v>
       </c>
       <c r="J14">
-        <v>1.099</v>
+        <v>1.213</v>
       </c>
       <c r="K14">
-        <v>0.277</v>
+        <v>0.225</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -8297,19 +8300,19 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="C15" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="D15" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="E15" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="F15" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="G15">
         <v>80</v>
@@ -8321,10 +8324,10 @@
         <v>0.01</v>
       </c>
       <c r="J15">
-        <v>0.139</v>
+        <v>0.176</v>
       </c>
       <c r="K15">
-        <v>0.89</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -8332,19 +8335,19 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="C16" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="D16" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="E16" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="F16" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="G16">
         <v>80</v>
@@ -8356,10 +8359,10 @@
         <v>0.058</v>
       </c>
       <c r="J16">
-        <v>0.8179999999999999</v>
+        <v>1.101</v>
       </c>
       <c r="K16">
-        <v>0.418</v>
+        <v>0.271</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -8367,19 +8370,19 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="C17" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="D17" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="E17" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="F17" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="G17">
         <v>80</v>
@@ -8391,10 +8394,10 @@
         <v>0.048</v>
       </c>
       <c r="J17">
-        <v>0.659</v>
+        <v>0.863</v>
       </c>
       <c r="K17">
-        <v>0.513</v>
+        <v>0.388</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -8402,19 +8405,19 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="C18" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="D18" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="E18" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="F18" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="G18">
         <v>80</v>
@@ -8426,10 +8429,10 @@
         <v>-0.051</v>
       </c>
       <c r="J18">
-        <v>-0.789</v>
+        <v>-0.95</v>
       </c>
       <c r="K18">
-        <v>0.434</v>
+        <v>0.342</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -8437,19 +8440,19 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="C19" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="D19" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="E19" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="F19" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="G19">
         <v>80</v>
@@ -8461,10 +8464,10 @@
         <v>0.002</v>
       </c>
       <c r="J19">
-        <v>0.027</v>
+        <v>0.02</v>
       </c>
       <c r="K19">
-        <v>0.979</v>
+        <v>0.984</v>
       </c>
     </row>
   </sheetData>
@@ -8543,10 +8546,10 @@
         <v>-6.732</v>
       </c>
       <c r="H2">
-        <v>-1.175</v>
+        <v>-1.068</v>
       </c>
       <c r="I2">
-        <v>0.243</v>
+        <v>0.286</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -8572,10 +8575,10 @@
         <v>2.656</v>
       </c>
       <c r="H3">
-        <v>0.535</v>
+        <v>0.448</v>
       </c>
       <c r="I3">
-        <v>0.594</v>
+        <v>0.654</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -8601,10 +8604,10 @@
         <v>-3.56</v>
       </c>
       <c r="H4">
-        <v>-0.484</v>
+        <v>-0.466</v>
       </c>
       <c r="I4">
-        <v>0.629</v>
+        <v>0.642</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -8630,10 +8633,10 @@
         <v>8.416</v>
       </c>
       <c r="H5">
-        <v>1.444</v>
+        <v>1.274</v>
       </c>
       <c r="I5">
-        <v>0.152</v>
+        <v>0.203</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -8659,10 +8662,10 @@
         <v>-0.829</v>
       </c>
       <c r="H6">
-        <v>-0.158</v>
+        <v>-0.152</v>
       </c>
       <c r="I6">
-        <v>0.875</v>
+        <v>0.879</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -8688,10 +8691,10 @@
         <v>-1.803</v>
       </c>
       <c r="H7">
-        <v>-0.332</v>
+        <v>-0.301</v>
       </c>
       <c r="I7">
-        <v>0.741</v>
+        <v>0.764</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -8714,13 +8717,13 @@
         <v>0.029</v>
       </c>
       <c r="G8">
-        <v>0.8139999999999999</v>
+        <v>0.857</v>
       </c>
       <c r="H8">
-        <v>0.303</v>
+        <v>0.327</v>
       </c>
       <c r="I8">
-        <v>0.763</v>
+        <v>0.744</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -8746,10 +8749,10 @@
         <v>-0.578</v>
       </c>
       <c r="H9">
-        <v>-0.23</v>
+        <v>-0.25</v>
       </c>
       <c r="I9">
-        <v>0.819</v>
+        <v>0.803</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -8775,10 +8778,10 @@
         <v>0.967</v>
       </c>
       <c r="H10">
-        <v>0.331</v>
+        <v>0.31</v>
       </c>
       <c r="I10">
-        <v>0.741</v>
+        <v>0.757</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -8804,10 +8807,10 @@
         <v>-4.449</v>
       </c>
       <c r="H11">
-        <v>-1.633</v>
+        <v>-1.442</v>
       </c>
       <c r="I11">
-        <v>0.106</v>
+        <v>0.149</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -8833,10 +8836,10 @@
         <v>1.437</v>
       </c>
       <c r="H12">
-        <v>0.551</v>
+        <v>0.515</v>
       </c>
       <c r="I12">
-        <v>0.583</v>
+        <v>0.607</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -8862,10 +8865,10 @@
         <v>-0.253</v>
       </c>
       <c r="H13">
-        <v>-0.099</v>
+        <v>-0.118</v>
       </c>
       <c r="I13">
-        <v>0.921</v>
+        <v>0.906</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -8891,10 +8894,10 @@
         <v>0.018</v>
       </c>
       <c r="H14">
-        <v>0.428</v>
+        <v>0.379</v>
       </c>
       <c r="I14">
-        <v>0.669</v>
+        <v>0.705</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -8920,10 +8923,10 @@
         <v>0.03</v>
       </c>
       <c r="H15">
-        <v>0.649</v>
+        <v>0.526</v>
       </c>
       <c r="I15">
-        <v>0.518</v>
+        <v>0.599</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -8949,10 +8952,10 @@
         <v>-0.003</v>
       </c>
       <c r="H16">
-        <v>-0.055</v>
+        <v>-0.044</v>
       </c>
       <c r="I16">
-        <v>0.956</v>
+        <v>0.965</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -8978,10 +8981,10 @@
         <v>0.018</v>
       </c>
       <c r="H17">
-        <v>0.381</v>
+        <v>0.323</v>
       </c>
       <c r="I17">
-        <v>0.704</v>
+        <v>0.747</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -9007,10 +9010,10 @@
         <v>0.04</v>
       </c>
       <c r="H18">
-        <v>0.91</v>
+        <v>0.602</v>
       </c>
       <c r="I18">
-        <v>0.365</v>
+        <v>0.547</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -9036,10 +9039,10 @@
         <v>0.017</v>
       </c>
       <c r="H19">
-        <v>0.419</v>
+        <v>0.354</v>
       </c>
       <c r="I19">
-        <v>0.676</v>
+        <v>0.724</v>
       </c>
     </row>
   </sheetData>
@@ -9125,10 +9128,10 @@
         <v>-6.827</v>
       </c>
       <c r="I2">
-        <v>-1.018</v>
+        <v>-0.952</v>
       </c>
       <c r="J2">
-        <v>0.311</v>
+        <v>0.341</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -9157,10 +9160,10 @@
         <v>-0.507</v>
       </c>
       <c r="I3">
-        <v>-0.08699999999999999</v>
+        <v>-0.08599999999999999</v>
       </c>
       <c r="J3">
-        <v>0.931</v>
+        <v>0.9320000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -9189,10 +9192,10 @@
         <v>-3.393</v>
       </c>
       <c r="I4">
-        <v>-0.395</v>
+        <v>-0.413</v>
       </c>
       <c r="J4">
-        <v>0.694</v>
+        <v>0.679</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -9221,10 +9224,10 @@
         <v>8.368</v>
       </c>
       <c r="I5">
-        <v>1.226</v>
+        <v>1.057</v>
       </c>
       <c r="J5">
-        <v>0.223</v>
+        <v>0.291</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -9253,10 +9256,10 @@
         <v>-1.377</v>
       </c>
       <c r="I6">
-        <v>-0.225</v>
+        <v>-0.208</v>
       </c>
       <c r="J6">
-        <v>0.823</v>
+        <v>0.836</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -9285,10 +9288,10 @@
         <v>-3.014</v>
       </c>
       <c r="I7">
-        <v>-0.476</v>
+        <v>-0.392</v>
       </c>
       <c r="J7">
-        <v>0.635</v>
+        <v>0.695</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -9314,13 +9317,13 @@
         <v>0.02</v>
       </c>
       <c r="H8">
-        <v>0.783</v>
+        <v>0.829</v>
       </c>
       <c r="I8">
-        <v>0.249</v>
+        <v>0.354</v>
       </c>
       <c r="J8">
-        <v>0.804</v>
+        <v>0.723</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -9349,10 +9352,10 @@
         <v>1.58</v>
       </c>
       <c r="I9">
-        <v>0.538</v>
+        <v>0.61</v>
       </c>
       <c r="J9">
-        <v>0.592</v>
+        <v>0.542</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -9381,10 +9384,10 @@
         <v>0.237</v>
       </c>
       <c r="I10">
-        <v>0.06900000000000001</v>
+        <v>0.074</v>
       </c>
       <c r="J10">
-        <v>0.945</v>
+        <v>0.9409999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -9413,10 +9416,10 @@
         <v>-4.162</v>
       </c>
       <c r="I11">
-        <v>-1.302</v>
+        <v>-1.1</v>
       </c>
       <c r="J11">
-        <v>0.196</v>
+        <v>0.271</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -9445,10 +9448,10 @@
         <v>2.236</v>
       </c>
       <c r="I12">
-        <v>0.736</v>
+        <v>0.622</v>
       </c>
       <c r="J12">
-        <v>0.464</v>
+        <v>0.534</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -9509,10 +9512,10 @@
         <v>0.02</v>
       </c>
       <c r="I14">
-        <v>0.397</v>
+        <v>0.335</v>
       </c>
       <c r="J14">
-        <v>0.6929999999999999</v>
+        <v>0.738</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -9541,10 +9544,10 @@
         <v>0.042</v>
       </c>
       <c r="I15">
-        <v>0.777</v>
+        <v>0.772</v>
       </c>
       <c r="J15">
-        <v>0.439</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -9573,10 +9576,10 @@
         <v>0.016</v>
       </c>
       <c r="I16">
-        <v>0.281</v>
+        <v>0.214</v>
       </c>
       <c r="J16">
-        <v>0.779</v>
+        <v>0.831</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -9605,10 +9608,10 @@
         <v>0.019</v>
       </c>
       <c r="I17">
-        <v>0.342</v>
+        <v>0.274</v>
       </c>
       <c r="J17">
-        <v>0.733</v>
+        <v>0.784</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -9637,10 +9640,10 @@
         <v>0.045</v>
       </c>
       <c r="I18">
-        <v>0.86</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="J18">
-        <v>0.392</v>
+        <v>0.578</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -9669,10 +9672,10 @@
         <v>0.034</v>
       </c>
       <c r="I19">
-        <v>0.724</v>
+        <v>0.614</v>
       </c>
       <c r="J19">
-        <v>0.471</v>
+        <v>0.539</v>
       </c>
     </row>
   </sheetData>
@@ -9758,10 +9761,10 @@
         <v>-4.587</v>
       </c>
       <c r="I2">
-        <v>-0.585</v>
+        <v>-0.511</v>
       </c>
       <c r="J2">
-        <v>0.5600000000000001</v>
+        <v>0.609</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -9790,10 +9793,10 @@
         <v>-2.049</v>
       </c>
       <c r="I3">
-        <v>-0.303</v>
+        <v>-0.34</v>
       </c>
       <c r="J3">
-        <v>0.763</v>
+        <v>0.734</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -9822,10 +9825,10 @@
         <v>-1.939</v>
       </c>
       <c r="I4">
-        <v>-0.194</v>
+        <v>-0.212</v>
       </c>
       <c r="J4">
-        <v>0.847</v>
+        <v>0.832</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -9854,10 +9857,10 @@
         <v>10.671</v>
       </c>
       <c r="I5">
-        <v>1.344</v>
+        <v>1.246</v>
       </c>
       <c r="J5">
-        <v>0.182</v>
+        <v>0.213</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -9886,10 +9889,10 @@
         <v>-7.345</v>
       </c>
       <c r="I6">
-        <v>-1.033</v>
+        <v>-0.997</v>
       </c>
       <c r="J6">
-        <v>0.304</v>
+        <v>0.319</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -9918,10 +9921,10 @@
         <v>-3.573</v>
       </c>
       <c r="I7">
-        <v>-0.484</v>
+        <v>-0.332</v>
       </c>
       <c r="J7">
-        <v>0.63</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -9947,13 +9950,13 @@
         <v>0.015</v>
       </c>
       <c r="H8">
-        <v>1.308</v>
+        <v>1.375</v>
       </c>
       <c r="I8">
-        <v>0.358</v>
+        <v>0.485</v>
       </c>
       <c r="J8">
-        <v>0.721</v>
+        <v>0.628</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -9982,10 +9985,10 @@
         <v>3.007</v>
       </c>
       <c r="I9">
-        <v>0.881</v>
+        <v>1.049</v>
       </c>
       <c r="J9">
-        <v>0.381</v>
+        <v>0.294</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -10014,10 +10017,10 @@
         <v>-0.484</v>
       </c>
       <c r="I10">
-        <v>-0.122</v>
+        <v>-0.118</v>
       </c>
       <c r="J10">
-        <v>0.903</v>
+        <v>0.906</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -10046,10 +10049,10 @@
         <v>-6.734</v>
       </c>
       <c r="I11">
-        <v>-1.823</v>
+        <v>-1.547</v>
       </c>
       <c r="J11">
-        <v>0.07099999999999999</v>
+        <v>0.122</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -10078,10 +10081,10 @@
         <v>4.388</v>
       </c>
       <c r="I12">
-        <v>1.246</v>
+        <v>1.11</v>
       </c>
       <c r="J12">
-        <v>0.216</v>
+        <v>0.267</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -10110,10 +10113,10 @@
         <v>1.188</v>
       </c>
       <c r="I13">
-        <v>0.342</v>
+        <v>0.256</v>
       </c>
       <c r="J13">
-        <v>0.733</v>
+        <v>0.798</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -10142,10 +10145,10 @@
         <v>0.023</v>
       </c>
       <c r="I14">
-        <v>0.398</v>
+        <v>0.375</v>
       </c>
       <c r="J14">
-        <v>0.6919999999999999</v>
+        <v>0.708</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -10174,10 +10177,10 @@
         <v>0.005</v>
       </c>
       <c r="I15">
-        <v>0.079</v>
+        <v>0.101</v>
       </c>
       <c r="J15">
-        <v>0.9370000000000001</v>
+        <v>0.919</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -10206,10 +10209,10 @@
         <v>-0.029</v>
       </c>
       <c r="I16">
-        <v>-0.433</v>
+        <v>-0.33</v>
       </c>
       <c r="J16">
-        <v>0.666</v>
+        <v>0.741</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -10238,10 +10241,10 @@
         <v>0.008</v>
       </c>
       <c r="I17">
-        <v>0.121</v>
+        <v>0.107</v>
       </c>
       <c r="J17">
-        <v>0.904</v>
+        <v>0.915</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -10270,10 +10273,10 @@
         <v>0.008</v>
       </c>
       <c r="I18">
-        <v>0.131</v>
+        <v>0.098</v>
       </c>
       <c r="J18">
-        <v>0.896</v>
+        <v>0.922</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -10302,10 +10305,10 @@
         <v>0.014</v>
       </c>
       <c r="I19">
-        <v>0.258</v>
+        <v>0.22</v>
       </c>
       <c r="J19">
-        <v>0.797</v>
+        <v>0.826</v>
       </c>
     </row>
   </sheetData>
@@ -10384,10 +10387,10 @@
         <v>-4.242</v>
       </c>
       <c r="H2">
-        <v>-0.877</v>
+        <v>-0.779</v>
       </c>
       <c r="I2">
-        <v>0.383</v>
+        <v>0.436</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -10413,10 +10416,10 @@
         <v>-2.639</v>
       </c>
       <c r="H3">
-        <v>-0.6929999999999999</v>
+        <v>-0.775</v>
       </c>
       <c r="I3">
-        <v>0.491</v>
+        <v>0.438</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -10442,10 +10445,10 @@
         <v>-2.372</v>
       </c>
       <c r="H4">
-        <v>-0.397</v>
+        <v>-0.298</v>
       </c>
       <c r="I4">
-        <v>0.6929999999999999</v>
+        <v>0.766</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -10471,10 +10474,10 @@
         <v>3.887</v>
       </c>
       <c r="H5">
-        <v>0.779</v>
+        <v>0.76</v>
       </c>
       <c r="I5">
-        <v>0.438</v>
+        <v>0.447</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -10500,10 +10503,10 @@
         <v>1.05</v>
       </c>
       <c r="H6">
-        <v>0.226</v>
+        <v>0.256</v>
       </c>
       <c r="I6">
-        <v>0.822</v>
+        <v>0.798</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -10529,10 +10532,10 @@
         <v>-1.902</v>
       </c>
       <c r="H7">
-        <v>-0.408</v>
+        <v>-0.55</v>
       </c>
       <c r="I7">
-        <v>0.6840000000000001</v>
+        <v>0.582</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -10555,13 +10558,13 @@
         <v>0.046</v>
       </c>
       <c r="G8">
-        <v>0.109</v>
+        <v>0.173</v>
       </c>
       <c r="H8">
-        <v>0.047</v>
+        <v>0.06</v>
       </c>
       <c r="I8">
-        <v>0.963</v>
+        <v>0.952</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -10587,10 +10590,10 @@
         <v>1.768</v>
       </c>
       <c r="H9">
-        <v>0.841</v>
+        <v>1.24</v>
       </c>
       <c r="I9">
-        <v>0.403</v>
+        <v>0.215</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -10616,10 +10619,10 @@
         <v>0.371</v>
       </c>
       <c r="H10">
-        <v>0.151</v>
+        <v>0.11</v>
       </c>
       <c r="I10">
-        <v>0.881</v>
+        <v>0.912</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -10645,10 +10648,10 @@
         <v>-2.708</v>
       </c>
       <c r="H11">
-        <v>-1.146</v>
+        <v>-1.105</v>
       </c>
       <c r="I11">
-        <v>0.255</v>
+        <v>0.269</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -10674,10 +10677,10 @@
         <v>-0.862</v>
       </c>
       <c r="H12">
-        <v>-0.376</v>
+        <v>-0.425</v>
       </c>
       <c r="I12">
-        <v>0.708</v>
+        <v>0.671</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -10703,10 +10706,10 @@
         <v>-0.8090000000000001</v>
       </c>
       <c r="H13">
-        <v>-0.376</v>
+        <v>-0.53</v>
       </c>
       <c r="I13">
-        <v>0.708</v>
+        <v>0.596</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -10732,10 +10735,10 @@
         <v>0.067</v>
       </c>
       <c r="H14">
-        <v>1.944</v>
+        <v>1.881</v>
       </c>
       <c r="I14">
-        <v>0.055</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -10761,10 +10764,10 @@
         <v>0.019</v>
       </c>
       <c r="H15">
-        <v>0.486</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="I15">
-        <v>0.628</v>
+        <v>0.572</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -10790,10 +10793,10 @@
         <v>-0.022</v>
       </c>
       <c r="H16">
-        <v>-0.528</v>
+        <v>-0.616</v>
       </c>
       <c r="I16">
-        <v>0.599</v>
+        <v>0.538</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -10819,10 +10822,10 @@
         <v>-0.052</v>
       </c>
       <c r="H17">
-        <v>-1.358</v>
+        <v>-1.162</v>
       </c>
       <c r="I17">
-        <v>0.178</v>
+        <v>0.245</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -10848,10 +10851,10 @@
         <v>-0.014</v>
       </c>
       <c r="H18">
-        <v>-0.407</v>
+        <v>-0.315</v>
       </c>
       <c r="I18">
-        <v>0.6850000000000001</v>
+        <v>0.753</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -10877,10 +10880,10 @@
         <v>0.004</v>
       </c>
       <c r="H19">
-        <v>0.122</v>
+        <v>0.092</v>
       </c>
       <c r="I19">
-        <v>0.903</v>
+        <v>0.927</v>
       </c>
     </row>
   </sheetData>
@@ -10944,10 +10947,10 @@
         <v>315</v>
       </c>
       <c r="C2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E2">
         <v>120</v>
@@ -10959,10 +10962,10 @@
         <v>-7.637</v>
       </c>
       <c r="H2">
-        <v>-1.252</v>
+        <v>-1.086</v>
       </c>
       <c r="I2">
-        <v>0.214</v>
+        <v>0.277</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -10973,10 +10976,10 @@
         <v>316</v>
       </c>
       <c r="C3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D3" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E3">
         <v>120</v>
@@ -10988,10 +10991,10 @@
         <v>-2.222</v>
       </c>
       <c r="H3">
-        <v>-0.459</v>
+        <v>-0.5679999999999999</v>
       </c>
       <c r="I3">
-        <v>0.647</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -11002,10 +11005,10 @@
         <v>317</v>
       </c>
       <c r="C4" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D4" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E4">
         <v>120</v>
@@ -11017,10 +11020,10 @@
         <v>-7.867</v>
       </c>
       <c r="H4">
-        <v>-1.043</v>
+        <v>-0.703</v>
       </c>
       <c r="I4">
-        <v>0.3</v>
+        <v>0.482</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -11031,10 +11034,10 @@
         <v>318</v>
       </c>
       <c r="C5" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D5" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E5">
         <v>120</v>
@@ -11046,10 +11049,10 @@
         <v>4.478</v>
       </c>
       <c r="H5">
-        <v>0.707</v>
+        <v>0.8169999999999999</v>
       </c>
       <c r="I5">
-        <v>0.482</v>
+        <v>0.414</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -11060,10 +11063,10 @@
         <v>319</v>
       </c>
       <c r="C6" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D6" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E6">
         <v>120</v>
@@ -11075,10 +11078,10 @@
         <v>-0.724</v>
       </c>
       <c r="H6">
-        <v>-0.123</v>
+        <v>-0.143</v>
       </c>
       <c r="I6">
-        <v>0.903</v>
+        <v>0.886</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -11092,7 +11095,7 @@
         <v>266</v>
       </c>
       <c r="D7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E7">
         <v>120</v>
@@ -11104,10 +11107,10 @@
         <v>-3.867</v>
       </c>
       <c r="H7">
-        <v>-0.655</v>
+        <v>-0.596</v>
       </c>
       <c r="I7">
-        <v>0.514</v>
+        <v>0.551</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -11118,10 +11121,10 @@
         <v>321</v>
       </c>
       <c r="C8" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D8" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E8">
         <v>120</v>
@@ -11130,13 +11133,13 @@
         <v>0.029</v>
       </c>
       <c r="G8">
-        <v>0.875</v>
+        <v>0.9429999999999999</v>
       </c>
       <c r="H8">
-        <v>0.295</v>
+        <v>0.296</v>
       </c>
       <c r="I8">
-        <v>0.769</v>
+        <v>0.767</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -11147,10 +11150,10 @@
         <v>322</v>
       </c>
       <c r="C9" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D9" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E9">
         <v>120</v>
@@ -11162,10 +11165,10 @@
         <v>1.671</v>
       </c>
       <c r="H9">
-        <v>0.626</v>
+        <v>0.743</v>
       </c>
       <c r="I9">
-        <v>0.533</v>
+        <v>0.458</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -11173,13 +11176,13 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C10" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D10" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E10">
         <v>120</v>
@@ -11191,10 +11194,10 @@
         <v>2.584</v>
       </c>
       <c r="H10">
-        <v>0.83</v>
+        <v>0.534</v>
       </c>
       <c r="I10">
-        <v>0.409</v>
+        <v>0.593</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -11202,13 +11205,13 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C11" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D11" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E11">
         <v>120</v>
@@ -11220,10 +11223,10 @@
         <v>-3.874</v>
       </c>
       <c r="H11">
-        <v>-1.296</v>
+        <v>-1.378</v>
       </c>
       <c r="I11">
-        <v>0.199</v>
+        <v>0.168</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -11231,13 +11234,13 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C12" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D12" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E12">
         <v>120</v>
@@ -11249,10 +11252,10 @@
         <v>0.145</v>
       </c>
       <c r="H12">
-        <v>0.05</v>
+        <v>0.055</v>
       </c>
       <c r="I12">
-        <v>0.96</v>
+        <v>0.956</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -11260,13 +11263,13 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C13" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D13" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E13">
         <v>120</v>
@@ -11278,10 +11281,10 @@
         <v>-0.387</v>
       </c>
       <c r="H13">
-        <v>-0.142</v>
+        <v>-0.128</v>
       </c>
       <c r="I13">
-        <v>0.888</v>
+        <v>0.898</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -11289,13 +11292,13 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C14" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D14" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E14">
         <v>120</v>
@@ -11307,10 +11310,10 @@
         <v>0.08</v>
       </c>
       <c r="H14">
-        <v>1.818</v>
+        <v>1.866</v>
       </c>
       <c r="I14">
-        <v>0.073</v>
+        <v>0.062</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -11318,13 +11321,13 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C15" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D15" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E15">
         <v>120</v>
@@ -11336,10 +11339,10 @@
         <v>0.028</v>
       </c>
       <c r="H15">
-        <v>0.574</v>
+        <v>0.575</v>
       </c>
       <c r="I15">
-        <v>0.5679999999999999</v>
+        <v>0.5649999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -11347,13 +11350,13 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C16" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D16" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E16">
         <v>120</v>
@@ -11365,10 +11368,10 @@
         <v>-0.005</v>
       </c>
       <c r="H16">
-        <v>-0.101</v>
+        <v>-0.108</v>
       </c>
       <c r="I16">
-        <v>0.92</v>
+        <v>0.914</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -11376,13 +11379,13 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C17" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D17" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E17">
         <v>120</v>
@@ -11394,10 +11397,10 @@
         <v>-0.026</v>
       </c>
       <c r="H17">
-        <v>-0.53</v>
+        <v>-0.417</v>
       </c>
       <c r="I17">
-        <v>0.598</v>
+        <v>0.677</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -11405,13 +11408,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C18" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D18" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E18">
         <v>120</v>
@@ -11423,10 +11426,10 @@
         <v>0.017</v>
       </c>
       <c r="H18">
-        <v>0.386</v>
+        <v>0.388</v>
       </c>
       <c r="I18">
-        <v>0.7</v>
+        <v>0.698</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -11434,13 +11437,13 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C19" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D19" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E19">
         <v>120</v>
@@ -11452,10 +11455,10 @@
         <v>0.025</v>
       </c>
       <c r="H19">
-        <v>0.555</v>
+        <v>0.434</v>
       </c>
       <c r="I19">
-        <v>0.58</v>
+        <v>0.664</v>
       </c>
     </row>
   </sheetData>
@@ -11516,13 +11519,13 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E2">
         <v>120</v>
@@ -11534,10 +11537,10 @@
         <v>-6.645</v>
       </c>
       <c r="H2">
-        <v>-0.921</v>
+        <v>-0.875</v>
       </c>
       <c r="I2">
-        <v>0.36</v>
+        <v>0.381</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -11545,13 +11548,13 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C3" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D3" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E3">
         <v>120</v>
@@ -11563,10 +11566,10 @@
         <v>-6.019</v>
       </c>
       <c r="H3">
-        <v>-1.062</v>
+        <v>-1.287</v>
       </c>
       <c r="I3">
-        <v>0.291</v>
+        <v>0.198</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -11574,13 +11577,13 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C4" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E4">
         <v>120</v>
@@ -11592,10 +11595,10 @@
         <v>-7.411</v>
       </c>
       <c r="H4">
-        <v>-0.833</v>
+        <v>-0.598</v>
       </c>
       <c r="I4">
-        <v>0.408</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -11603,13 +11606,13 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C5" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D5" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E5">
         <v>120</v>
@@ -11621,10 +11624,10 @@
         <v>1.327</v>
       </c>
       <c r="H5">
-        <v>0.177</v>
+        <v>0.165</v>
       </c>
       <c r="I5">
-        <v>0.86</v>
+        <v>0.869</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -11632,13 +11635,13 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
+        <v>370</v>
+      </c>
+      <c r="C6" t="s">
+        <v>388</v>
+      </c>
+      <c r="D6" t="s">
         <v>369</v>
-      </c>
-      <c r="C6" t="s">
-        <v>387</v>
-      </c>
-      <c r="D6" t="s">
-        <v>368</v>
       </c>
       <c r="E6">
         <v>120</v>
@@ -11650,10 +11653,10 @@
         <v>-1.592</v>
       </c>
       <c r="H6">
-        <v>-0.23</v>
+        <v>-0.243</v>
       </c>
       <c r="I6">
-        <v>0.819</v>
+        <v>0.8080000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -11661,13 +11664,13 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E7">
         <v>120</v>
@@ -11679,10 +11682,10 @@
         <v>-7.702</v>
       </c>
       <c r="H7">
-        <v>-1.113</v>
+        <v>-0.897</v>
       </c>
       <c r="I7">
-        <v>0.269</v>
+        <v>0.369</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -11690,13 +11693,13 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C8" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D8" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E8">
         <v>120</v>
@@ -11705,13 +11708,13 @@
         <v>0.019</v>
       </c>
       <c r="G8">
-        <v>0.6919999999999999</v>
+        <v>0.674</v>
       </c>
       <c r="H8">
-        <v>0.198</v>
+        <v>0.221</v>
       </c>
       <c r="I8">
-        <v>0.843</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -11719,13 +11722,13 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C9" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D9" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E9">
         <v>120</v>
@@ -11737,10 +11740,10 @@
         <v>3.639</v>
       </c>
       <c r="H9">
-        <v>1.164</v>
+        <v>1.37</v>
       </c>
       <c r="I9">
-        <v>0.248</v>
+        <v>0.171</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -11748,13 +11751,13 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C10" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D10" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E10">
         <v>120</v>
@@ -11766,10 +11769,10 @@
         <v>1.294</v>
       </c>
       <c r="H10">
-        <v>0.352</v>
+        <v>0.27</v>
       </c>
       <c r="I10">
-        <v>0.726</v>
+        <v>0.787</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -11777,13 +11780,13 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C11" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D11" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E11">
         <v>120</v>
@@ -11795,10 +11798,10 @@
         <v>-1.953</v>
       </c>
       <c r="H11">
-        <v>-0.55</v>
+        <v>-0.464</v>
       </c>
       <c r="I11">
-        <v>0.584</v>
+        <v>0.643</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -11806,13 +11809,13 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C12" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D12" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E12">
         <v>120</v>
@@ -11824,10 +11827,10 @@
         <v>0.527</v>
       </c>
       <c r="H12">
-        <v>0.154</v>
+        <v>0.141</v>
       </c>
       <c r="I12">
-        <v>0.878</v>
+        <v>0.888</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -11835,13 +11838,13 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C13" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D13" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E13">
         <v>120</v>
@@ -11853,10 +11856,10 @@
         <v>1.289</v>
       </c>
       <c r="H13">
-        <v>0.401</v>
+        <v>0.33</v>
       </c>
       <c r="I13">
-        <v>0.6889999999999999</v>
+        <v>0.741</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -11864,13 +11867,13 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C14" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D14" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E14">
         <v>120</v>
@@ -11882,10 +11885,10 @@
         <v>0.112</v>
       </c>
       <c r="H14">
-        <v>2.184</v>
+        <v>2.517</v>
       </c>
       <c r="I14">
-        <v>0.032</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -11893,13 +11896,13 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C15" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D15" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E15">
         <v>120</v>
@@ -11911,7 +11914,7 @@
         <v>0.04</v>
       </c>
       <c r="H15">
-        <v>0.695</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="I15">
         <v>0.489</v>
@@ -11922,13 +11925,13 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C16" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D16" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E16">
         <v>120</v>
@@ -11940,10 +11943,10 @@
         <v>0.023</v>
       </c>
       <c r="H16">
-        <v>0.366</v>
+        <v>0.401</v>
       </c>
       <c r="I16">
-        <v>0.715</v>
+        <v>0.6889999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -11951,13 +11954,13 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C17" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D17" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E17">
         <v>120</v>
@@ -11969,10 +11972,10 @@
         <v>-0.045</v>
       </c>
       <c r="H17">
-        <v>-0.782</v>
+        <v>-0.571</v>
       </c>
       <c r="I17">
-        <v>0.437</v>
+        <v>0.5679999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -11980,13 +11983,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C18" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D18" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E18">
         <v>120</v>
@@ -11998,10 +12001,10 @@
         <v>-0.008999999999999999</v>
       </c>
       <c r="H18">
-        <v>-0.18</v>
+        <v>-0.146</v>
       </c>
       <c r="I18">
-        <v>0.858</v>
+        <v>0.884</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -12009,13 +12012,13 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C19" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D19" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E19">
         <v>120</v>
@@ -12027,10 +12030,10 @@
         <v>0.041</v>
       </c>
       <c r="H19">
-        <v>0.778</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="I19">
-        <v>0.439</v>
+        <v>0.489</v>
       </c>
     </row>
   </sheetData>
@@ -12095,16 +12098,16 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E2" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="F2">
         <v>120</v>
@@ -12116,10 +12119,10 @@
         <v>-5.8</v>
       </c>
       <c r="I2">
-        <v>-0.737</v>
+        <v>-0.671</v>
       </c>
       <c r="J2">
-        <v>0.463</v>
+        <v>0.502</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -12127,16 +12130,16 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C3" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D3" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E3" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="F3">
         <v>120</v>
@@ -12148,10 +12151,10 @@
         <v>-6.111</v>
       </c>
       <c r="I3">
-        <v>-0.989</v>
+        <v>-1.247</v>
       </c>
       <c r="J3">
-        <v>0.325</v>
+        <v>0.212</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -12159,16 +12162,16 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C4" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D4" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E4" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F4">
         <v>120</v>
@@ -12180,10 +12183,10 @@
         <v>-0.871</v>
       </c>
       <c r="I4">
-        <v>-0.09</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="J4">
-        <v>0.929</v>
+        <v>0.944</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -12191,16 +12194,16 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C5" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D5" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E5" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="F5">
         <v>120</v>
@@ -12212,10 +12215,10 @@
         <v>3.109</v>
       </c>
       <c r="I5">
-        <v>0.382</v>
+        <v>0.409</v>
       </c>
       <c r="J5">
-        <v>0.703</v>
+        <v>0.6830000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -12223,16 +12226,16 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C6" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D6" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E6" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="F6">
         <v>120</v>
@@ -12244,10 +12247,10 @@
         <v>-3.229</v>
       </c>
       <c r="I6">
-        <v>-0.428</v>
+        <v>-0.491</v>
       </c>
       <c r="J6">
-        <v>0.67</v>
+        <v>0.623</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -12255,16 +12258,16 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="F7">
         <v>120</v>
@@ -12276,10 +12279,10 @@
         <v>-7.017</v>
       </c>
       <c r="I7">
-        <v>-0.929</v>
+        <v>-0.718</v>
       </c>
       <c r="J7">
-        <v>0.356</v>
+        <v>0.473</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -12287,16 +12290,16 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C8" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D8" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E8" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F8">
         <v>120</v>
@@ -12305,13 +12308,13 @@
         <v>0.015</v>
       </c>
       <c r="H8">
-        <v>1.471</v>
+        <v>1.472</v>
       </c>
       <c r="I8">
-        <v>0.387</v>
+        <v>0.447</v>
       </c>
       <c r="J8">
-        <v>0.7</v>
+        <v>0.655</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -12319,16 +12322,16 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C9" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D9" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E9" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F9">
         <v>120</v>
@@ -12340,10 +12343,10 @@
         <v>4.591</v>
       </c>
       <c r="I9">
-        <v>1.352</v>
+        <v>1.607</v>
       </c>
       <c r="J9">
-        <v>0.18</v>
+        <v>0.108</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -12351,16 +12354,16 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C10" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D10" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E10" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F10">
         <v>120</v>
@@ -12372,10 +12375,10 @@
         <v>-1.16</v>
       </c>
       <c r="I10">
-        <v>-0.29</v>
+        <v>-0.223</v>
       </c>
       <c r="J10">
-        <v>0.773</v>
+        <v>0.824</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -12383,16 +12386,16 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C11" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D11" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E11" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="F11">
         <v>120</v>
@@ -12404,10 +12407,10 @@
         <v>-4.284</v>
       </c>
       <c r="I11">
-        <v>-1.115</v>
+        <v>-1.072</v>
       </c>
       <c r="J11">
-        <v>0.268</v>
+        <v>0.284</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -12415,16 +12418,16 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C12" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D12" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E12" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="F12">
         <v>120</v>
@@ -12436,10 +12439,10 @@
         <v>1.439</v>
       </c>
       <c r="I12">
-        <v>0.385</v>
+        <v>0.371</v>
       </c>
       <c r="J12">
-        <v>0.701</v>
+        <v>0.711</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -12447,16 +12450,16 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C13" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D13" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E13" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F13">
         <v>120</v>
@@ -12468,10 +12471,10 @@
         <v>1.07</v>
       </c>
       <c r="I13">
-        <v>0.306</v>
+        <v>0.238</v>
       </c>
       <c r="J13">
-        <v>0.761</v>
+        <v>0.8120000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -12479,16 +12482,16 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C14" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D14" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E14" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F14">
         <v>120</v>
@@ -12500,10 +12503,10 @@
         <v>0.103</v>
       </c>
       <c r="I14">
-        <v>1.819</v>
+        <v>2.16</v>
       </c>
       <c r="J14">
-        <v>0.073</v>
+        <v>0.031</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -12511,16 +12514,16 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C15" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D15" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E15" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F15">
         <v>120</v>
@@ -12532,10 +12535,10 @@
         <v>0.014</v>
       </c>
       <c r="I15">
-        <v>0.227</v>
+        <v>0.266</v>
       </c>
       <c r="J15">
-        <v>0.821</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -12543,16 +12546,16 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C16" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D16" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E16" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F16">
         <v>120</v>
@@ -12564,10 +12567,10 @@
         <v>-0.01</v>
       </c>
       <c r="I16">
-        <v>-0.156</v>
+        <v>-0.189</v>
       </c>
       <c r="J16">
-        <v>0.876</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -12575,16 +12578,16 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C17" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D17" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E17" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="F17">
         <v>120</v>
@@ -12596,10 +12599,10 @@
         <v>-0.016</v>
       </c>
       <c r="I17">
-        <v>-0.252</v>
+        <v>-0.215</v>
       </c>
       <c r="J17">
-        <v>0.802</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -12607,16 +12610,16 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C18" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D18" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E18" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="F18">
         <v>120</v>
@@ -12628,10 +12631,10 @@
         <v>-0.016</v>
       </c>
       <c r="I18">
-        <v>-0.292</v>
+        <v>-0.265</v>
       </c>
       <c r="J18">
-        <v>0.771</v>
+        <v>0.791</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -12639,16 +12642,16 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C19" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D19" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E19" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F19">
         <v>120</v>
@@ -12660,10 +12663,10 @@
         <v>0.034</v>
       </c>
       <c r="I19">
-        <v>0.604</v>
+        <v>0.592</v>
       </c>
       <c r="J19">
-        <v>0.547</v>
+        <v>0.554</v>
       </c>
     </row>
   </sheetData>
@@ -12728,13 +12731,13 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C2" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D2" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="E2" t="s">
         <v>184</v>
@@ -12749,10 +12752,10 @@
         <v>-4.01</v>
       </c>
       <c r="I2">
-        <v>-0.872</v>
+        <v>-0.781</v>
       </c>
       <c r="J2">
-        <v>0.386</v>
+        <v>0.435</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -12760,16 +12763,16 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C3" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="E3" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="F3">
         <v>100</v>
@@ -12781,10 +12784,10 @@
         <v>1.503</v>
       </c>
       <c r="I3">
-        <v>0.434</v>
+        <v>0.46</v>
       </c>
       <c r="J3">
-        <v>0.665</v>
+        <v>0.646</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -12792,16 +12795,16 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C4" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D4" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="E4" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="F4">
         <v>100</v>
@@ -12813,10 +12816,10 @@
         <v>-1.241</v>
       </c>
       <c r="I4">
-        <v>-0.221</v>
+        <v>-0.154</v>
       </c>
       <c r="J4">
-        <v>0.826</v>
+        <v>0.878</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -12824,16 +12827,16 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C5" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D5" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="E5" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="F5">
         <v>100</v>
@@ -12845,10 +12848,10 @@
         <v>5.978</v>
       </c>
       <c r="I5">
-        <v>1.186</v>
+        <v>1.041</v>
       </c>
       <c r="J5">
-        <v>0.24</v>
+        <v>0.298</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -12856,16 +12859,16 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C6" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D6" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="E6" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="F6">
         <v>100</v>
@@ -12877,10 +12880,10 @@
         <v>-0.82</v>
       </c>
       <c r="I6">
-        <v>-0.18</v>
+        <v>-0.173</v>
       </c>
       <c r="J6">
-        <v>0.858</v>
+        <v>0.862</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -12888,16 +12891,16 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C7" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D7" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="E7" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="F7">
         <v>100</v>
@@ -12909,10 +12912,10 @@
         <v>-0.523</v>
       </c>
       <c r="I7">
-        <v>-0.109</v>
+        <v>-0.133</v>
       </c>
       <c r="J7">
-        <v>0.914</v>
+        <v>0.894</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -12920,13 +12923,13 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C8" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D8" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E8" t="s">
         <v>190</v>
@@ -12938,13 +12941,13 @@
         <v>0.051</v>
       </c>
       <c r="H8">
-        <v>0.099</v>
+        <v>0.165</v>
       </c>
       <c r="I8">
-        <v>0.044</v>
+        <v>0.066</v>
       </c>
       <c r="J8">
-        <v>0.965</v>
+        <v>0.947</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -12952,13 +12955,13 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C9" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D9" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E9" t="s">
         <v>190</v>
@@ -12973,10 +12976,10 @@
         <v>-1.212</v>
       </c>
       <c r="I9">
-        <v>-0.633</v>
+        <v>-0.8179999999999999</v>
       </c>
       <c r="J9">
-        <v>0.529</v>
+        <v>0.413</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -12984,16 +12987,16 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C10" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D10" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E10" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="F10">
         <v>100</v>
@@ -13005,10 +13008,10 @@
         <v>0.233</v>
       </c>
       <c r="I10">
-        <v>0.098</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J10">
-        <v>0.922</v>
+        <v>0.944</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -13016,16 +13019,16 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C11" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D11" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="E11" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="F11">
         <v>100</v>
@@ -13037,10 +13040,10 @@
         <v>-3.022</v>
       </c>
       <c r="I11">
-        <v>-1.281</v>
+        <v>-1.145</v>
       </c>
       <c r="J11">
-        <v>0.205</v>
+        <v>0.252</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -13048,16 +13051,16 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C12" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D12" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="E12" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="F12">
         <v>100</v>
@@ -13069,10 +13072,10 @@
         <v>0.712</v>
       </c>
       <c r="I12">
-        <v>0.309</v>
+        <v>0.277</v>
       </c>
       <c r="J12">
-        <v>0.759</v>
+        <v>0.782</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -13080,16 +13083,16 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C13" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D13" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E13" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="F13">
         <v>100</v>
@@ -13101,10 +13104,10 @@
         <v>-1.113</v>
       </c>
       <c r="I13">
-        <v>-0.497</v>
+        <v>-0.5639999999999999</v>
       </c>
       <c r="J13">
-        <v>0.621</v>
+        <v>0.573</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -13112,16 +13115,16 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C14" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D14" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="E14" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="F14">
         <v>100</v>
@@ -13133,10 +13136,10 @@
         <v>0.068</v>
       </c>
       <c r="I14">
-        <v>1.895</v>
+        <v>1.653</v>
       </c>
       <c r="J14">
-        <v>0.063</v>
+        <v>0.098</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -13144,16 +13147,16 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C15" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D15" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E15" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="F15">
         <v>100</v>
@@ -13165,10 +13168,10 @@
         <v>0.052</v>
       </c>
       <c r="I15">
-        <v>1.444</v>
+        <v>1.686</v>
       </c>
       <c r="J15">
-        <v>0.154</v>
+        <v>0.092</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -13176,16 +13179,16 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C16" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D16" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="E16" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="F16">
         <v>100</v>
@@ -13197,10 +13200,10 @@
         <v>-0.01</v>
       </c>
       <c r="I16">
-        <v>-0.237</v>
+        <v>-0.274</v>
       </c>
       <c r="J16">
-        <v>0.8139999999999999</v>
+        <v>0.784</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -13208,16 +13211,16 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C17" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D17" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="E17" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="F17">
         <v>100</v>
@@ -13229,10 +13232,10 @@
         <v>-0.014</v>
       </c>
       <c r="I17">
-        <v>-0.379</v>
+        <v>-0.381</v>
       </c>
       <c r="J17">
-        <v>0.706</v>
+        <v>0.703</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -13240,16 +13243,16 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C18" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D18" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="E18" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="F18">
         <v>100</v>
@@ -13261,10 +13264,10 @@
         <v>-0.031</v>
       </c>
       <c r="I18">
-        <v>-0.87</v>
+        <v>-0.8</v>
       </c>
       <c r="J18">
-        <v>0.387</v>
+        <v>0.424</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -13272,16 +13275,16 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C19" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D19" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E19" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F19">
         <v>100</v>
@@ -13293,10 +13296,10 @@
         <v>-0.027</v>
       </c>
       <c r="I19">
-        <v>-0.761</v>
+        <v>-0.74</v>
       </c>
       <c r="J19">
-        <v>0.449</v>
+        <v>0.459</v>
       </c>
     </row>
   </sheetData>
